--- a/Arbeitsstunden_Putz.xlsx
+++ b/Arbeitsstunden_Putz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL\5. Klasse\SYP\DA Schrift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E503222-1DE6-4506-BBFB-C945B5C74508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD7D129-72A8-4339-B526-1DF401B1EC77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Chat extern mit Firebase</t>
+  </si>
+  <si>
+    <t>Administratives (Vivify, Dokumentationen, Repository)</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -173,6 +176,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -453,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,13 +640,25 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+    </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="7">
-        <f>SUM(C2:C15)</f>
-        <v>182</v>
+      <c r="C18" s="7">
+        <f>SUM(C2:C16)</f>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsstunden_Putz.xlsx
+++ b/Arbeitsstunden_Putz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL\5. Klasse\SYP\DA Schrift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD7D129-72A8-4339-B526-1DF401B1EC77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54104B7-C495-4761-9C69-23FDD42EA875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Administratives (Vivify, Dokumentationen, Repository)</t>
+  </si>
+  <si>
+    <t>Diplomarbeitssschrift verfassen</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,34 +634,45 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>44287</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C17" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <f>SUM(C2:C16)</f>
-        <v>187</v>
+      <c r="C19" s="7">
+        <f>SUM(C2:C17)</f>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
